--- a/Docs/Test Results/usability_carlos.xlsx
+++ b/Docs/Test Results/usability_carlos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Add task</t>
   </si>
@@ -93,13 +93,22 @@
   </si>
   <si>
     <t>Observação do utilizador:</t>
+  </si>
+  <si>
+    <t>Passou?</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +124,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,10 +166,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -151,8 +186,12 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Correto" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorreto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,122 +481,153 @@
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="75.140625" customWidth="1"/>
+    <col min="4" max="4" width="77.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>8.7962962962962962E-4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>1.6203703703703703E-4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>5.4398148148148144E-4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>2.3148148148148147E-5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -565,8 +635,11 @@
         <f>SUM(B2:B10)</f>
         <v>2.6388888888888885E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
